--- a/cryptoMODELE.xlsx
+++ b/cryptoMODELE.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">0x123123123</t>
   </si>
   <si>
-    <t xml:space="preserve">polygon</t>
+    <t xml:space="preserve">bnb</t>
   </si>
   <si>
     <t xml:space="preserve">NOMUSDT</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">heure</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : ////valeur cours actuelle ou anticipée crypto/dollars (par ex 20 % en moins que actuelle) //// 0,00000000001 //// date du jour //// heure</t>
+    <t xml:space="preserve">&lt; - initialiser la première ligne manuellement pour commencer immédiatement =  ////200000 //// 0,00000000001 //// date du jour //// heure</t>
   </si>
 </sst>
 </file>
@@ -456,25 +456,25 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.38"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="19" style="1" width="11.53"/>
@@ -551,15 +551,15 @@
       </c>
       <c r="I2" s="5" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>999</v>
+        <v>200000</v>
       </c>
       <c r="J2" s="6" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>999</v>
+        <v>200000</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>1198.8</v>
+        <v>240000</v>
       </c>
       <c r="L2" s="6" t="n">
         <f aca="false">SUM(B4:B9999)</f>
@@ -591,7 +591,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
-        <v>999</v>
+        <v>200000</v>
       </c>
       <c r="B4" s="11" t="n">
         <v>1E-011</v>
